--- a/资产负债表/600729.xlsx
+++ b/资产负债表/600729.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>15147771524.1</v>
+        <v>16109587969.96</v>
       </c>
       <c r="P2" t="n">
-        <v>3037902847.08</v>
+        <v>2975292487.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>4045998229.34</v>
+        <v>5437588026.91</v>
       </c>
       <c r="R2" t="n">
-        <v>32.3831634903</v>
+        <v>48.6097172766</v>
       </c>
       <c r="S2" t="n">
-        <v>176073775.98</v>
+        <v>174777805.61</v>
       </c>
       <c r="T2" t="n">
-        <v>32.0069894117</v>
+        <v>-17.6665885616</v>
       </c>
       <c r="U2" t="n">
-        <v>2799106056.63</v>
+        <v>2487156485.96</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1556312141</v>
+        <v>9.6190580796</v>
       </c>
       <c r="W2" t="n">
-        <v>8689673016.559999</v>
+        <v>9016012386.16</v>
       </c>
       <c r="X2" t="n">
-        <v>3045153071.34</v>
+        <v>2754281183.08</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.6002816422</v>
+        <v>-3.7937710136</v>
       </c>
       <c r="Z2" t="n">
-        <v>2223090813.49</v>
+        <v>1026344349.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5694753741</v>
+        <v>-27.9417794432</v>
       </c>
       <c r="AB2" t="n">
-        <v>6458098507.54</v>
+        <v>7093575583.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.8830761462</v>
+        <v>11.6519997806</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.3122374133</v>
+        <v>14.5098993476</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.5156028516</v>
+        <v>16.863374294</v>
       </c>
       <c r="AF2" t="n">
-        <v>110.4242411122</v>
+        <v>116.0440624415</v>
       </c>
       <c r="AG2" t="n">
-        <v>57.3660158706</v>
+        <v>55.9667472748</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/600729.xlsx
+++ b/资产负债表/600729.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>003</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,65 +789,63 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2020-03-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>16109587969.96</v>
+        <v>15102255213.37</v>
       </c>
       <c r="P2" t="n">
-        <v>2975292487.37</v>
+        <v>2995722165.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>5437588026.91</v>
+        <v>4488677584.99</v>
       </c>
       <c r="R2" t="n">
-        <v>48.6097172766</v>
+        <v>26.5610242522</v>
       </c>
       <c r="S2" t="n">
-        <v>174777805.61</v>
+        <v>198432197.64</v>
       </c>
       <c r="T2" t="n">
-        <v>-17.6665885616</v>
+        <v>46.8735448525</v>
       </c>
       <c r="U2" t="n">
-        <v>2487156485.96</v>
+        <v>2590930476.47</v>
       </c>
       <c r="V2" t="n">
-        <v>9.6190580796</v>
+        <v>11.7780141547</v>
       </c>
       <c r="W2" t="n">
-        <v>9016012386.16</v>
+        <v>8488037523.46</v>
       </c>
       <c r="X2" t="n">
-        <v>2754281183.08</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-3.7937710136</v>
-      </c>
+        <v>2343884081.2</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>1026344349.9</v>
+        <v>1644252450.75</v>
       </c>
       <c r="AA2" t="n">
-        <v>-27.9417794432</v>
+        <v>15.7331756688</v>
       </c>
       <c r="AB2" t="n">
-        <v>7093575583.8</v>
+        <v>6614217689.91</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.6519997806</v>
+        <v>6.6402688928</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5098993476</v>
+        <v>9.7531766726</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.863374294</v>
+        <v>12.3077955664</v>
       </c>
       <c r="AF2" t="n">
-        <v>116.0440624415</v>
+        <v>112.7119307023</v>
       </c>
       <c r="AG2" t="n">
-        <v>55.9667472748</v>
+        <v>56.2037748902</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
